--- a/artfynd/A 9466-2023 artfynd.xlsx
+++ b/artfynd/A 9466-2023 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131047928</v>
       </c>
       <c r="B2" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 9466-2023 artfynd.xlsx
+++ b/artfynd/A 9466-2023 artfynd.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Petter Westberg, Kasper Wieck, Martin Berg</t>
+          <t>Martin Berg, Kasper Wieck, Petter Westberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>

--- a/artfynd/A 9466-2023 artfynd.xlsx
+++ b/artfynd/A 9466-2023 artfynd.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Martin Berg, Kasper Wieck, Petter Westberg</t>
+          <t>Petter Westberg, Kasper Wieck, Martin Berg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
